--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEE2280-D180-458D-8318-7069B0CFC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDA65D0-1E72-47D0-A132-48421240FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F8ADCBC-DB91-4A40-86BC-CD4CFA72ADE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{698287A0-1261-40FA-A0E2-7D189EA086D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="448">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,1123 +260,1129 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>96,4%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>92,89%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA531DC-FD6F-45F0-9A44-476D52A72FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49AB99A-E54B-4DE2-B302-DC5E229B8C06}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3230,7 +3236,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3281,7 +3287,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3319,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CB329-F0C5-4B40-B5EC-4290C8E27E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D01C0F-E785-4503-B613-394EE583FDBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,10 +3759,10 @@
         <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3765,13 +3771,13 @@
         <v>11156</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3795,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
@@ -3801,13 +3807,13 @@
         <v>332876</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -3816,13 +3822,13 @@
         <v>653910</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3896,13 @@
         <v>8831</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3905,13 +3911,13 @@
         <v>38265</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3920,13 +3926,13 @@
         <v>47096</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,10 +3947,10 @@
         <v>659889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>113</v>
@@ -4233,10 +4239,10 @@
         <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,10 +4257,10 @@
         <v>272906</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4266,13 +4272,13 @@
         <v>274709</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>524</v>
@@ -4281,13 +4287,13 @@
         <v>547615</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4361,13 @@
         <v>5006</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4370,13 +4376,13 @@
         <v>20139</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4385,13 +4391,13 @@
         <v>25145</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,10 +4412,10 @@
         <v>657782</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>163</v>
@@ -4516,7 +4522,7 @@
         <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4525,13 +4531,13 @@
         <v>35449</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4540,10 +4546,10 @@
         <v>41905</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>177</v>
@@ -4564,10 +4570,10 @@
         <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>725</v>
@@ -4576,13 +4582,13 @@
         <v>788404</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -4591,13 +4597,13 @@
         <v>1561046</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,10 +4674,10 @@
         <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>143</v>
@@ -4680,13 +4686,13 @@
         <v>154531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -4695,13 +4701,13 @@
         <v>200200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4722,13 @@
         <v>3381111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>3155</v>
@@ -4731,13 +4737,13 @@
         <v>3403778</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>6322</v>
@@ -4746,13 +4752,13 @@
         <v>6784888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B6B042-D2AA-49B3-9603-A9D70F8F3751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56125665-98E8-4501-9351-FA81CE4D3E54}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4849,7 +4855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4956,13 +4962,13 @@
         <v>5186</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4971,13 +4977,13 @@
         <v>23063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4986,13 +4992,13 @@
         <v>28248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5013,13 @@
         <v>288575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>257</v>
@@ -5022,13 +5028,13 @@
         <v>265640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>518</v>
@@ -5037,13 +5043,13 @@
         <v>554216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5117,13 @@
         <v>2982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5126,13 +5132,13 @@
         <v>10984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5141,13 +5147,13 @@
         <v>13966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5168,13 @@
         <v>499593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5177,13 +5183,13 @@
         <v>512100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>946</v>
@@ -5192,13 +5198,13 @@
         <v>1011693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5287,13 @@
         <v>2675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5302,7 +5308,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,10 +5338,10 @@
         <v>333634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5350,7 +5356,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5421,13 +5427,13 @@
         <v>3596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5436,13 +5442,13 @@
         <v>14592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5451,13 +5457,13 @@
         <v>18188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5478,13 @@
         <v>366368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
@@ -5487,13 +5493,13 @@
         <v>372691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5502,13 +5508,13 @@
         <v>739059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>2913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5591,13 +5597,13 @@
         <v>11779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5606,13 +5612,13 @@
         <v>14693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5633,13 @@
         <v>208308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5642,13 +5648,13 @@
         <v>206808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5657,13 +5663,13 @@
         <v>415115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5737,13 @@
         <v>2573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5746,13 +5752,13 @@
         <v>11337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5761,13 +5767,13 @@
         <v>13911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,10 +5788,10 @@
         <v>260550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5797,13 +5803,13 @@
         <v>261778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -5812,13 +5818,13 @@
         <v>522327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5892,13 @@
         <v>9974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5901,13 +5907,13 @@
         <v>23118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5916,13 +5922,13 @@
         <v>33092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5943,13 @@
         <v>646584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -5952,13 +5958,13 @@
         <v>668176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -5967,13 +5973,13 @@
         <v>1314760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6047,13 @@
         <v>6361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6056,13 +6062,13 @@
         <v>30727</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6071,13 +6077,13 @@
         <v>37088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6098,13 @@
         <v>772222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6107,13 +6113,13 @@
         <v>795440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>1474</v>
@@ -6122,13 +6128,13 @@
         <v>1567662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6202,13 @@
         <v>33584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -6211,13 +6217,13 @@
         <v>128277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -6226,13 +6232,13 @@
         <v>161860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6253,13 @@
         <v>3360766</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>3226</v>
@@ -6262,13 +6268,13 @@
         <v>3416265</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>6424</v>
@@ -6277,13 +6283,13 @@
         <v>6777032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAFF534-629B-42BF-83A2-83E8051B0274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE0BE1-A295-495F-A31B-4029013D8E25}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6380,7 +6386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6487,13 +6493,13 @@
         <v>1822</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6502,13 +6508,13 @@
         <v>2103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6517,13 +6523,13 @@
         <v>3926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,10 +6544,10 @@
         <v>258476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>67</v>
@@ -6553,13 +6559,13 @@
         <v>269300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>862</v>
@@ -6568,10 +6574,10 @@
         <v>527774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>163</v>
@@ -6642,13 +6648,13 @@
         <v>17163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -6657,13 +6663,13 @@
         <v>40246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6672,13 +6678,13 @@
         <v>57409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6699,13 @@
         <v>502134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -6708,13 +6714,13 @@
         <v>514320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>1026</v>
@@ -6723,13 +6729,13 @@
         <v>1016455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6803,13 @@
         <v>10899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6812,13 +6818,13 @@
         <v>22804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6827,13 +6833,13 @@
         <v>33703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6854,13 @@
         <v>311341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6863,13 +6869,13 @@
         <v>350480</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -6878,13 +6884,13 @@
         <v>661821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6958,13 @@
         <v>16062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -6967,13 +6973,13 @@
         <v>33698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -6982,13 +6988,13 @@
         <v>49760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +7009,13 @@
         <v>306178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -7018,13 +7024,13 @@
         <v>394858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>803</v>
@@ -7033,13 +7039,13 @@
         <v>701036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7113,13 @@
         <v>3628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7122,13 +7128,13 @@
         <v>14736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -7137,13 +7143,13 @@
         <v>18364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7164,13 @@
         <v>193120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>463</v>
@@ -7173,13 +7179,13 @@
         <v>244777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -7188,13 +7194,13 @@
         <v>437896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7268,13 @@
         <v>19384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -7277,13 +7283,13 @@
         <v>22125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -7292,13 +7298,13 @@
         <v>41509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7319,13 @@
         <v>257839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>408</v>
@@ -7328,13 +7334,13 @@
         <v>253497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>743</v>
@@ -7343,13 +7349,13 @@
         <v>511336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7423,13 @@
         <v>18096</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7432,13 +7438,13 @@
         <v>57783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -7447,13 +7453,13 @@
         <v>75879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7474,13 @@
         <v>609658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>874</v>
@@ -7483,13 +7489,13 @@
         <v>746420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>1453</v>
@@ -7498,13 +7504,13 @@
         <v>1356078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7578,13 @@
         <v>13244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -7587,13 +7593,13 @@
         <v>47672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7602,13 +7608,13 @@
         <v>60916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7629,13 @@
         <v>846184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>1005</v>
@@ -7638,13 +7644,13 @@
         <v>820762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>1752</v>
@@ -7653,13 +7659,13 @@
         <v>1666946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7733,13 @@
         <v>100298</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>398</v>
@@ -7742,13 +7748,13 @@
         <v>241167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>528</v>
@@ -7757,13 +7763,13 @@
         <v>341465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7784,13 @@
         <v>3284930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>4969</v>
@@ -7793,28 +7799,28 @@
         <v>3594414</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>8215</v>
       </c>
       <c r="N29" s="7">
-        <v>6879344</v>
+        <v>6879343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,7 +7862,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDA65D0-1E72-47D0-A132-48421240FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09AB3F45-4BBD-4F03-B33A-94B678635652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{698287A0-1261-40FA-A0E2-7D189EA086D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0F32844-9180-4804-88BC-0A196E31BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="468">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -263,1072 +263,1132 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
   </si>
   <si>
     <t>94,51%</t>
@@ -1794,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49AB99A-E54B-4DE2-B302-DC5E229B8C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A20FE4-3393-4F02-ADE8-3931ECDB2FCA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3206,7 +3266,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3257,7 +3317,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3325,7 +3385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D01C0F-E785-4503-B613-394EE583FDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D2FEE0-06FC-4A57-A2A0-61025894374D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3759,10 +3819,10 @@
         <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3771,13 +3831,13 @@
         <v>11156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3855,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
@@ -3807,13 +3867,13 @@
         <v>332876</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -3822,13 +3882,13 @@
         <v>653910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3956,13 @@
         <v>8831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3911,13 +3971,13 @@
         <v>38265</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3926,13 +3986,13 @@
         <v>47096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +4007,13 @@
         <v>659889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -3962,13 +4022,13 @@
         <v>637931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -3977,13 +4037,13 @@
         <v>1297820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4111,13 @@
         <v>7714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4066,13 +4126,13 @@
         <v>14889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4081,13 +4141,13 @@
         <v>22603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4162,13 @@
         <v>204904</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4117,13 +4177,13 @@
         <v>204702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -4132,13 +4192,13 @@
         <v>409606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4266,13 @@
         <v>1075</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4221,13 +4281,13 @@
         <v>5322</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4236,13 +4296,13 @@
         <v>6397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,10 +4317,10 @@
         <v>272906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4272,13 +4332,13 @@
         <v>274709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>524</v>
@@ -4287,13 +4347,13 @@
         <v>547615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4421,13 @@
         <v>5006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4376,13 +4436,13 @@
         <v>20139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4391,13 +4451,13 @@
         <v>25145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4472,13 @@
         <v>657782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>618</v>
@@ -4522,7 +4582,7 @@
         <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4531,13 +4591,13 @@
         <v>35449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4546,13 +4606,13 @@
         <v>41905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4627,13 @@
         <v>772642</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>725</v>
@@ -4582,13 +4642,13 @@
         <v>788404</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -4597,13 +4657,13 @@
         <v>1561046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4731,13 @@
         <v>45668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>143</v>
@@ -4686,13 +4746,13 @@
         <v>154531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -4701,13 +4761,13 @@
         <v>200200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4782,13 @@
         <v>3381111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>3155</v>
@@ -4737,13 +4797,13 @@
         <v>3403778</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>6322</v>
@@ -4752,13 +4812,13 @@
         <v>6784888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +4898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56125665-98E8-4501-9351-FA81CE4D3E54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C82CA0-4906-4D9F-A488-4CD8D3049E22}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4855,7 +4915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4962,13 +5022,13 @@
         <v>5186</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4977,13 +5037,13 @@
         <v>23063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4992,13 +5052,13 @@
         <v>28248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5073,13 @@
         <v>288575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>257</v>
@@ -5028,13 +5088,13 @@
         <v>265640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>518</v>
@@ -5043,13 +5103,13 @@
         <v>554216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5177,13 @@
         <v>2982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5132,13 +5192,13 @@
         <v>10984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5147,13 +5207,13 @@
         <v>13966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5228,13 @@
         <v>499593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5183,13 +5243,13 @@
         <v>512100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>946</v>
@@ -5198,13 +5258,13 @@
         <v>1011693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5347,13 @@
         <v>2675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5308,7 +5368,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,10 +5398,10 @@
         <v>333634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5356,7 +5416,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5427,13 +5487,13 @@
         <v>3596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5442,13 +5502,13 @@
         <v>14592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5457,13 +5517,13 @@
         <v>18188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5538,13 @@
         <v>366368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
@@ -5493,13 +5553,13 @@
         <v>372691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5508,13 +5568,13 @@
         <v>739059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5642,13 @@
         <v>2913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5597,13 +5657,13 @@
         <v>11779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5612,13 +5672,13 @@
         <v>14693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5693,13 @@
         <v>208308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5648,13 +5708,13 @@
         <v>206808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5663,13 +5723,13 @@
         <v>415115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5797,13 @@
         <v>2573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5752,13 +5812,13 @@
         <v>11337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5767,13 +5827,13 @@
         <v>13911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,10 +5848,10 @@
         <v>260550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5803,13 +5863,13 @@
         <v>261778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -5818,13 +5878,13 @@
         <v>522327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5952,13 @@
         <v>9974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5907,13 +5967,13 @@
         <v>23118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5922,13 +5982,13 @@
         <v>33092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +6003,13 @@
         <v>646584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -5958,13 +6018,13 @@
         <v>668176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -5973,13 +6033,13 @@
         <v>1314760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6107,13 @@
         <v>6361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6062,13 +6122,13 @@
         <v>30727</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6077,13 +6137,13 @@
         <v>37088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6158,13 @@
         <v>772222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6113,13 +6173,13 @@
         <v>795440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>1474</v>
@@ -6128,13 +6188,13 @@
         <v>1567662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6262,13 @@
         <v>33584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -6217,13 +6277,13 @@
         <v>128277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -6232,13 +6292,13 @@
         <v>161860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6313,13 @@
         <v>3360766</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>3226</v>
@@ -6268,13 +6328,13 @@
         <v>3416265</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>6424</v>
@@ -6283,13 +6343,13 @@
         <v>6777032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE0BE1-A295-495F-A31B-4029013D8E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752EE2A7-47D3-4A5E-8F23-251A86CF998B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6386,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6493,13 +6553,13 @@
         <v>1822</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6508,13 +6568,13 @@
         <v>2103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6523,13 +6583,13 @@
         <v>3926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,10 +6604,10 @@
         <v>258476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>67</v>
@@ -6559,13 +6619,13 @@
         <v>269300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>862</v>
@@ -6574,13 +6634,13 @@
         <v>527774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6708,13 @@
         <v>17163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -6663,13 +6723,13 @@
         <v>40246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6678,13 +6738,13 @@
         <v>57409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6759,13 @@
         <v>502134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -6714,13 +6774,13 @@
         <v>514320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>1026</v>
@@ -6729,13 +6789,13 @@
         <v>1016455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6863,13 @@
         <v>10899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6818,13 +6878,13 @@
         <v>22804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6833,13 +6893,13 @@
         <v>33703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6914,13 @@
         <v>311341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6869,13 +6929,13 @@
         <v>350480</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -6884,13 +6944,13 @@
         <v>661821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +7018,13 @@
         <v>16062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -6973,13 +7033,13 @@
         <v>33698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -6988,13 +7048,13 @@
         <v>49760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7069,13 @@
         <v>306178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -7024,13 +7084,13 @@
         <v>394858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>803</v>
@@ -7039,13 +7099,13 @@
         <v>701036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7173,13 @@
         <v>3628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7128,13 +7188,13 @@
         <v>14736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -7143,13 +7203,13 @@
         <v>18364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7224,13 @@
         <v>193120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>463</v>
@@ -7179,13 +7239,13 @@
         <v>244777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -7194,13 +7254,13 @@
         <v>437896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7328,13 @@
         <v>19384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -7283,13 +7343,13 @@
         <v>22125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -7298,13 +7358,13 @@
         <v>41509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7379,13 @@
         <v>257839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>408</v>
@@ -7334,13 +7394,13 @@
         <v>253497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>743</v>
@@ -7349,13 +7409,13 @@
         <v>511336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7483,13 @@
         <v>18096</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7438,13 +7498,13 @@
         <v>57783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -7453,13 +7513,13 @@
         <v>75879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7534,13 @@
         <v>609658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>874</v>
@@ -7489,13 +7549,13 @@
         <v>746420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>1453</v>
@@ -7504,13 +7564,13 @@
         <v>1356078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7638,13 @@
         <v>13244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -7593,13 +7653,13 @@
         <v>47672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7608,13 +7668,13 @@
         <v>60916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7689,13 @@
         <v>846184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>1005</v>
@@ -7644,13 +7704,13 @@
         <v>820762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>1752</v>
@@ -7659,10 +7719,10 @@
         <v>1666946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>81</v>
@@ -7733,13 +7793,13 @@
         <v>100298</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>398</v>
@@ -7748,13 +7808,13 @@
         <v>241167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>528</v>
@@ -7763,13 +7823,13 @@
         <v>341465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7844,13 @@
         <v>3284930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>4969</v>
@@ -7799,13 +7859,13 @@
         <v>3594414</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>8215</v>
@@ -7814,13 +7874,13 @@
         <v>6879343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09AB3F45-4BBD-4F03-B33A-94B678635652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C04056-5939-4DB1-9B45-5CF3E8E2C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0F32844-9180-4804-88BC-0A196E31BF54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D560A74-1D59-4324-8059-D88BE68A5CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="446">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,1189 +260,1123 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,89%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A20FE4-3393-4F02-ADE8-3931ECDB2FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBA91C7-B908-4FA3-AD98-14C216648122}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3266,7 +3200,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3296,7 +3230,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3317,7 +3251,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3347,7 +3281,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3385,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D2FEE0-06FC-4A57-A2A0-61025894374D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4B3EB-7435-4915-9A18-176225C2A071}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,7 +3896,7 @@
         <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3971,13 +3905,13 @@
         <v>38265</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3986,13 +3920,13 @@
         <v>47096</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3941,13 @@
         <v>659889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4022,13 +3956,13 @@
         <v>637931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -4037,13 +3971,13 @@
         <v>1297820</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4045,13 @@
         <v>7714</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4126,13 +4060,13 @@
         <v>14889</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4141,13 +4075,13 @@
         <v>22603</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4096,13 @@
         <v>204904</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4177,13 +4111,13 @@
         <v>204702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -4192,13 +4126,13 @@
         <v>409606</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4200,13 @@
         <v>1075</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4281,13 +4215,13 @@
         <v>5322</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4296,13 +4230,13 @@
         <v>6397</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,10 +4251,10 @@
         <v>272906</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4332,13 +4266,13 @@
         <v>274709</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>524</v>
@@ -4347,13 +4281,13 @@
         <v>547615</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,10 +4358,10 @@
         <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4475,10 +4409,10 @@
         <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>618</v>
@@ -4609,10 +4543,10 @@
         <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4561,13 @@
         <v>772642</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>725</v>
@@ -4642,13 +4576,13 @@
         <v>788404</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -4657,13 +4591,13 @@
         <v>1561046</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4665,13 @@
         <v>45668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H28" s="7">
         <v>143</v>
@@ -4746,13 +4680,13 @@
         <v>154531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -4761,13 +4695,13 @@
         <v>200200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4716,13 @@
         <v>3381111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>3155</v>
@@ -4797,13 +4731,13 @@
         <v>3403778</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>6322</v>
@@ -4812,13 +4746,13 @@
         <v>6784888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C82CA0-4906-4D9F-A488-4CD8D3049E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25F6849-C4B9-4994-A077-0B1B7B6D784F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5022,13 +4956,13 @@
         <v>5186</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5037,13 +4971,13 @@
         <v>23063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5052,13 +4986,13 @@
         <v>28248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5007,13 @@
         <v>288575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>257</v>
@@ -5088,13 +5022,13 @@
         <v>265640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>518</v>
@@ -5103,13 +5037,13 @@
         <v>554216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5111,13 @@
         <v>2982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5192,13 +5126,13 @@
         <v>10984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5207,13 +5141,13 @@
         <v>13966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5162,13 @@
         <v>499593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5243,13 +5177,13 @@
         <v>512100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>946</v>
@@ -5258,13 +5192,13 @@
         <v>1011693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5281,13 @@
         <v>2675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5368,7 +5302,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,10 +5332,10 @@
         <v>333634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5416,7 +5350,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5487,13 +5421,13 @@
         <v>3596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5502,13 +5436,13 @@
         <v>14592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5517,13 +5451,13 @@
         <v>18188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5472,13 @@
         <v>366368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
@@ -5553,13 +5487,13 @@
         <v>372691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5568,13 +5502,13 @@
         <v>739059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5576,13 @@
         <v>2913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5657,13 +5591,13 @@
         <v>11779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5672,13 +5606,13 @@
         <v>14693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5627,13 @@
         <v>208308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5708,13 +5642,13 @@
         <v>206808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5723,13 +5657,13 @@
         <v>415115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5731,13 @@
         <v>2573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5812,13 +5746,13 @@
         <v>11337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5827,13 +5761,13 @@
         <v>13911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,10 +5782,10 @@
         <v>260550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5863,13 +5797,13 @@
         <v>261778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -5878,13 +5812,13 @@
         <v>522327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5886,13 @@
         <v>9974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5967,13 +5901,13 @@
         <v>23118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5982,13 +5916,13 @@
         <v>33092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5937,13 @@
         <v>646584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -6018,13 +5952,13 @@
         <v>668176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -6033,13 +5967,13 @@
         <v>1314760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6041,13 @@
         <v>6361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6122,13 +6056,13 @@
         <v>30727</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6137,13 +6071,13 @@
         <v>37088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6092,13 @@
         <v>772222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6173,13 +6107,13 @@
         <v>795440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1474</v>
@@ -6188,13 +6122,13 @@
         <v>1567662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6196,13 @@
         <v>33584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -6277,13 +6211,13 @@
         <v>128277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -6292,13 +6226,13 @@
         <v>161860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6247,13 @@
         <v>3360766</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7">
         <v>3226</v>
@@ -6328,13 +6262,13 @@
         <v>3416265</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>6424</v>
@@ -6343,13 +6277,13 @@
         <v>6777032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752EE2A7-47D3-4A5E-8F23-251A86CF998B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7080B3-E93C-408B-9E5E-06C098EC1371}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6446,7 +6380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6553,13 +6487,13 @@
         <v>1822</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6568,13 +6502,13 @@
         <v>2103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6583,13 +6517,13 @@
         <v>3926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,10 +6538,10 @@
         <v>258476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>67</v>
@@ -6619,13 +6553,13 @@
         <v>269300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>862</v>
@@ -6634,13 +6568,13 @@
         <v>527774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6642,13 @@
         <v>17163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -6723,13 +6657,13 @@
         <v>40246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6738,13 +6672,13 @@
         <v>57409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6693,13 @@
         <v>502134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -6774,13 +6708,13 @@
         <v>514320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>1026</v>
@@ -6789,13 +6723,13 @@
         <v>1016455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6797,13 @@
         <v>10899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6878,13 +6812,13 @@
         <v>22804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6893,13 +6827,13 @@
         <v>33703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6848,13 @@
         <v>311341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6929,13 +6863,13 @@
         <v>350480</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -6944,13 +6878,13 @@
         <v>661821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +6952,13 @@
         <v>16062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -7033,13 +6967,13 @@
         <v>33698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -7048,13 +6982,13 @@
         <v>49760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7003,13 @@
         <v>306178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -7084,13 +7018,13 @@
         <v>394858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>803</v>
@@ -7099,13 +7033,13 @@
         <v>701036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7107,13 @@
         <v>3628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7188,13 +7122,13 @@
         <v>14736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -7203,13 +7137,13 @@
         <v>18364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7158,13 @@
         <v>193120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>463</v>
@@ -7239,13 +7173,13 @@
         <v>244777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -7254,13 +7188,13 @@
         <v>437896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7262,13 @@
         <v>19384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -7343,13 +7277,13 @@
         <v>22125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -7358,13 +7292,13 @@
         <v>41509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7313,13 @@
         <v>257839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>408</v>
@@ -7394,13 +7328,13 @@
         <v>253497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>743</v>
@@ -7409,13 +7343,13 @@
         <v>511336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7417,13 @@
         <v>18096</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7498,13 +7432,13 @@
         <v>57783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -7513,13 +7447,13 @@
         <v>75879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7468,13 @@
         <v>609658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>874</v>
@@ -7549,13 +7483,13 @@
         <v>746420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>1453</v>
@@ -7564,13 +7498,13 @@
         <v>1356078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7572,13 @@
         <v>13244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -7653,13 +7587,13 @@
         <v>47672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7668,13 +7602,13 @@
         <v>60916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7623,13 @@
         <v>846184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>1005</v>
@@ -7704,13 +7638,13 @@
         <v>820762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>1752</v>
@@ -7719,13 +7653,13 @@
         <v>1666946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7727,13 @@
         <v>100298</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="H28" s="7">
         <v>398</v>
@@ -7808,13 +7742,13 @@
         <v>241167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>528</v>
@@ -7823,13 +7757,13 @@
         <v>341465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7778,13 @@
         <v>3284930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>439</v>
       </c>
       <c r="H29" s="7">
         <v>4969</v>
@@ -7859,28 +7793,28 @@
         <v>3594414</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M29" s="7">
         <v>8215</v>
       </c>
       <c r="N29" s="7">
-        <v>6879343</v>
+        <v>6879344</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7856,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
